--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 3 (16, 22, 47, 15, 7)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(16, 22, 47, 15, 7)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.999999999923769</v>
+        <v>0.9999999996839979</v>
       </c>
       <c r="E3">
-        <v>0.999999999923769</v>
+        <v>0.9999999996839979</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9998984479562353</v>
+        <v>0.9999999986968737</v>
       </c>
       <c r="E4">
-        <v>0.9998984479562353</v>
+        <v>0.9999999986968737</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.001217691116158027</v>
+        <v>0.002278140107529631</v>
       </c>
       <c r="E5">
-        <v>0.001217691116158027</v>
+        <v>0.002278140107529631</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2.117517539663774E-23</v>
+        <v>1.82815514027753E-32</v>
       </c>
       <c r="E6">
-        <v>2.117517539663774E-23</v>
+        <v>1.82815514027753E-32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.262801454864265E-08</v>
+        <v>4.084263089582548E-09</v>
       </c>
       <c r="E7">
-        <v>0.9999999873719855</v>
+        <v>0.999999995915737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999998108763508</v>
+        <v>0.9999999999999885</v>
       </c>
       <c r="E8">
-        <v>1.89123649185774E-07</v>
+        <v>1.154631945610163E-14</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.002535317967755832</v>
+        <v>0.003344851357330871</v>
       </c>
       <c r="E9">
-        <v>0.9974646820322441</v>
+        <v>0.9966551486426691</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.2287676182266661</v>
+        <v>0.9999981597517494</v>
       </c>
       <c r="E10">
-        <v>0.771232381773334</v>
+        <v>1.840248250561949E-06</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.640362993768199E-08</v>
+        <v>0.0004542034276673773</v>
       </c>
       <c r="E11">
-        <v>0.9999999835963701</v>
+        <v>0.9995457965723327</v>
       </c>
       <c r="F11">
-        <v>14.84283638000488</v>
+        <v>15.93203926086426</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
